--- a/Typhoon-BOM.xlsx
+++ b/Typhoon-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T440s\Documents\GitHub\Typhoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754D5901-E53E-4140-B246-2DB9A9E104FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED96300-E6FE-4D54-ABB8-39515667F8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF6F8124-3A3A-450F-B150-0B3A13083F9F}"/>
   </bookViews>
@@ -638,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +650,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,6 +737,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1101,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2457F1AC-4075-4D06-8955-DA48A3A232CB}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2112,6 +2121,9 @@
         <v>163</v>
       </c>
       <c r="F54" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
